--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H2">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I2">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J2">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>0.9205706196960001</v>
+        <v>1.512356028015</v>
       </c>
       <c r="R2">
-        <v>3.682282478784</v>
+        <v>6.04942411206</v>
       </c>
       <c r="S2">
-        <v>0.01193517876957468</v>
+        <v>0.02318892023006643</v>
       </c>
       <c r="T2">
-        <v>0.006868010755463371</v>
+        <v>0.01421934516871745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H3">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I3">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J3">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
-        <v>0.7322549705426666</v>
+        <v>0.9702653718799998</v>
       </c>
       <c r="R3">
-        <v>4.393529823256</v>
+        <v>5.821592231279999</v>
       </c>
       <c r="S3">
-        <v>0.009493670329412033</v>
+        <v>0.01487705665447838</v>
       </c>
       <c r="T3">
-        <v>0.008194594047150863</v>
+        <v>0.01368381978758398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H4">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I4">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J4">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.00432154422</v>
+        <v>0.00186505368</v>
       </c>
       <c r="R4">
-        <v>0.02592926532</v>
+        <v>0.01119032208</v>
       </c>
       <c r="S4">
-        <v>5.602873014061092E-05</v>
+        <v>2.859682522446552E-05</v>
       </c>
       <c r="T4">
-        <v>4.836198040890974E-05</v>
+        <v>2.630317353472108E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H5">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I5">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J5">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>1.1651178845145</v>
+        <v>0.930959729595</v>
       </c>
       <c r="R5">
-        <v>4.660471538058</v>
+        <v>3.72383891838</v>
       </c>
       <c r="S5">
-        <v>0.01510572892702285</v>
+        <v>0.0142743841443984</v>
       </c>
       <c r="T5">
-        <v>0.008692480501790107</v>
+        <v>0.008752990359460431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H6">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I6">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J6">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>0.7364559940850001</v>
+        <v>0.01354047331</v>
       </c>
       <c r="R6">
-        <v>4.41873596451</v>
+        <v>0.08124283986</v>
       </c>
       <c r="S6">
-        <v>0.00954813651149538</v>
+        <v>0.0002076157661599371</v>
       </c>
       <c r="T6">
-        <v>0.008241607292395798</v>
+        <v>0.0001909636291086212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H7">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I7">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J7">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.01320555456966667</v>
+        <v>0.00309243753</v>
       </c>
       <c r="R7">
-        <v>0.079233327418</v>
+        <v>0.01855462518</v>
       </c>
       <c r="S7">
-        <v>0.0001712097379258022</v>
+        <v>4.741627359647249E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001477820748498572</v>
+        <v>4.36131795396228E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>14.429385</v>
       </c>
       <c r="I8">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J8">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N8">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O8">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P8">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q8">
-        <v>12.35640183336</v>
+        <v>15.3200700527925</v>
       </c>
       <c r="R8">
-        <v>74.13841100016</v>
+        <v>91.920420316755</v>
       </c>
       <c r="S8">
-        <v>0.1602004905159289</v>
+        <v>0.2349022821296358</v>
       </c>
       <c r="T8">
-        <v>0.1382792892929307</v>
+        <v>0.2160615887274004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>14.429385</v>
       </c>
       <c r="I9">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J9">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.130444</v>
       </c>
       <c r="O9">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P9">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q9">
         <v>9.82872629966</v>
@@ -1013,10 +1013,10 @@
         <v>88.45853669694</v>
       </c>
       <c r="S9">
-        <v>0.12742923025547</v>
+        <v>0.1507036345305003</v>
       </c>
       <c r="T9">
-        <v>0.1649884779202928</v>
+        <v>0.2079243318229055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>14.429385</v>
       </c>
       <c r="I10">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J10">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P10">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q10">
-        <v>0.0580061277</v>
+        <v>0.01889287476</v>
       </c>
       <c r="R10">
-        <v>0.5220551493</v>
+        <v>0.17003587284</v>
       </c>
       <c r="S10">
-        <v>0.0007520482285855486</v>
+        <v>0.0002896840146174431</v>
       </c>
       <c r="T10">
-        <v>0.000973711387161549</v>
+        <v>0.0003996742040545706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>14.429385</v>
       </c>
       <c r="I11">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J11">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N11">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O11">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P11">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q11">
-        <v>15.6388488360075</v>
+        <v>9.4305626516025</v>
       </c>
       <c r="R11">
-        <v>93.833093016045</v>
+        <v>56.583375909615</v>
       </c>
       <c r="S11">
-        <v>0.2027573470351928</v>
+        <v>0.1445986004629362</v>
       </c>
       <c r="T11">
-        <v>0.1750128339598236</v>
+        <v>0.1330008506538857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>14.429385</v>
       </c>
       <c r="I12">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J12">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N12">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O12">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P12">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q12">
-        <v>9.885114732975</v>
+        <v>0.137164130545</v>
       </c>
       <c r="R12">
-        <v>88.96603259677499</v>
+        <v>1.234477174905</v>
       </c>
       <c r="S12">
-        <v>0.1281603051102954</v>
+        <v>0.002103134462200111</v>
       </c>
       <c r="T12">
-        <v>0.1659350341170275</v>
+        <v>0.002901674064789603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>14.429385</v>
       </c>
       <c r="I13">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J13">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N13">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O13">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P13">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q13">
-        <v>0.177252168605</v>
+        <v>0.031326194835</v>
       </c>
       <c r="R13">
-        <v>1.595269517445</v>
+        <v>0.281935753515</v>
       </c>
       <c r="S13">
-        <v>0.002298070646979892</v>
+        <v>0.0004803238256627817</v>
       </c>
       <c r="T13">
-        <v>0.002975417629364825</v>
+        <v>0.0006626980883420109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H14">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I14">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J14">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N14">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O14">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P14">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q14">
-        <v>2.044976610144</v>
+        <v>3.379183473074834</v>
       </c>
       <c r="R14">
-        <v>12.269859660864</v>
+        <v>20.275100838449</v>
       </c>
       <c r="S14">
-        <v>0.02651307884421451</v>
+        <v>0.05181294255344084</v>
       </c>
       <c r="T14">
-        <v>0.0228851340450851</v>
+        <v>0.04765720700218604</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H15">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I15">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J15">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.130444</v>
       </c>
       <c r="O15">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P15">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q15">
-        <v>1.626647923997333</v>
+        <v>2.167945013223556</v>
       </c>
       <c r="R15">
-        <v>14.639831315976</v>
+        <v>19.511505119012</v>
       </c>
       <c r="S15">
-        <v>0.02108945620540974</v>
+        <v>0.03324105107763205</v>
       </c>
       <c r="T15">
-        <v>0.02730548770106743</v>
+        <v>0.04586235332638176</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H16">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I16">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J16">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N16">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O16">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P16">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q16">
-        <v>0.009599977080000001</v>
+        <v>0.004167245314666668</v>
       </c>
       <c r="R16">
-        <v>0.08639979371999999</v>
+        <v>0.037505207832</v>
       </c>
       <c r="S16">
-        <v>0.000124463501422038</v>
+        <v>6.389627666427034E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001611486125678042</v>
+        <v>8.815706849260555E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H17">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I17">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J17">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N17">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O17">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P17">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q17">
-        <v>2.588219492253</v>
+        <v>2.0801211315795</v>
       </c>
       <c r="R17">
-        <v>15.529316953518</v>
+        <v>12.480726789477</v>
       </c>
       <c r="S17">
-        <v>0.0335562114128066</v>
+        <v>0.03189444951820176</v>
       </c>
       <c r="T17">
-        <v>0.02896451222204499</v>
+        <v>0.02933630687625891</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H18">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I18">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J18">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N18">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O18">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P18">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q18">
-        <v>1.63598017369</v>
+        <v>0.03025461120211112</v>
       </c>
       <c r="R18">
-        <v>14.72382156321</v>
+        <v>0.2722915008190001</v>
       </c>
       <c r="S18">
-        <v>0.02121044862687227</v>
+        <v>0.0004638932584401154</v>
       </c>
       <c r="T18">
-        <v>0.02746214214696634</v>
+        <v>0.0006400289953112597</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H19">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I19">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J19">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N19">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O19">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P19">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q19">
-        <v>0.02933512067533333</v>
+        <v>0.006909691633000001</v>
       </c>
       <c r="R19">
-        <v>0.264016086078</v>
+        <v>0.06218722469700001</v>
       </c>
       <c r="S19">
-        <v>0.0003803292240662315</v>
+        <v>0.0001059461430535623</v>
       </c>
       <c r="T19">
-        <v>0.0004924297169612695</v>
+        <v>0.0001461728582210641</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H20">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I20">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J20">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N20">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O20">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P20">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q20">
-        <v>1.523791681152</v>
+        <v>2.7716780524885</v>
       </c>
       <c r="R20">
-        <v>6.095166724608</v>
+        <v>11.086712209954</v>
       </c>
       <c r="S20">
-        <v>0.01975592717497942</v>
+        <v>0.04249807589747262</v>
       </c>
       <c r="T20">
-        <v>0.01136840284854359</v>
+        <v>0.02605963555858002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H21">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I21">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J21">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.130444</v>
       </c>
       <c r="O21">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P21">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q21">
-        <v>1.212078691978667</v>
+        <v>1.778194543158667</v>
       </c>
       <c r="R21">
-        <v>7.272472151872</v>
+        <v>10.669167258952</v>
       </c>
       <c r="S21">
-        <v>0.01571457481049619</v>
+        <v>0.02726501607492965</v>
       </c>
       <c r="T21">
-        <v>0.01356425457461342</v>
+        <v>0.02507818415564129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H22">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I22">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J22">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N22">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O22">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P22">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q22">
-        <v>0.00715331664</v>
+        <v>0.003418063112</v>
       </c>
       <c r="R22">
-        <v>0.04291989984</v>
+        <v>0.020508378672</v>
       </c>
       <c r="S22">
-        <v>9.27426001515962E-05</v>
+        <v>5.240908316379222E-05</v>
       </c>
       <c r="T22">
-        <v>8.005206972113501E-05</v>
+        <v>4.820553325176398E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H23">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I23">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J23">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N23">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O23">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P23">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q23">
-        <v>1.928583100524</v>
+        <v>1.7061595302105</v>
       </c>
       <c r="R23">
-        <v>7.714332402096</v>
+        <v>6.824638120842001</v>
       </c>
       <c r="S23">
-        <v>0.02500403943408033</v>
+        <v>0.0261605048764526</v>
       </c>
       <c r="T23">
-        <v>0.01438839041113195</v>
+        <v>0.01604150796740784</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H24">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I24">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J24">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N24">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O24">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P24">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q24">
-        <v>1.21903251452</v>
+        <v>0.02481547466233333</v>
       </c>
       <c r="R24">
-        <v>7.31419508712</v>
+        <v>0.148892847974</v>
       </c>
       <c r="S24">
-        <v>0.01580473097384422</v>
+        <v>0.0003804951028438489</v>
       </c>
       <c r="T24">
-        <v>0.01364207412530889</v>
+        <v>0.0003499769166911206</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H25">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I25">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J25">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N25">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O25">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P25">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q25">
-        <v>0.02185874040266667</v>
+        <v>0.005667475827000001</v>
       </c>
       <c r="R25">
-        <v>0.131152442416</v>
+        <v>0.034004854962</v>
       </c>
       <c r="S25">
-        <v>0.0002833981106954124</v>
+        <v>8.689927664098236E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002446190346091631</v>
+        <v>7.992938851037139E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H26">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I26">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J26">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N26">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O26">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P26">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q26">
-        <v>0.334425754416</v>
+        <v>1.148020103864667</v>
       </c>
       <c r="R26">
-        <v>2.006554526496</v>
+        <v>6.888120623188</v>
       </c>
       <c r="S26">
-        <v>0.004335822889310683</v>
+        <v>0.0176025658759541</v>
       </c>
       <c r="T26">
-        <v>0.003742526041605898</v>
+        <v>0.01619072541295478</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H27">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I27">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J27">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>6.130444</v>
       </c>
       <c r="O27">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P27">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q27">
-        <v>0.2660142695293333</v>
+        <v>0.736522440727111</v>
       </c>
       <c r="R27">
-        <v>2.394128425764</v>
+        <v>6.628701966543999</v>
       </c>
       <c r="S27">
-        <v>0.003448869423118099</v>
+        <v>0.0112930816615262</v>
       </c>
       <c r="T27">
-        <v>0.004465409667195786</v>
+        <v>0.01558095440769956</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H28">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I28">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J28">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N28">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O28">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P28">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q28">
-        <v>0.00156993462</v>
+        <v>0.001415750709333333</v>
       </c>
       <c r="R28">
-        <v>0.01412941158</v>
+        <v>0.012741756384</v>
       </c>
       <c r="S28">
-        <v>2.035416940900411E-05</v>
+        <v>2.17076730982984E-05</v>
       </c>
       <c r="T28">
-        <v>2.635347811009179E-05</v>
+        <v>2.994986443727919E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H29">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I29">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J29">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N29">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O29">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P29">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q29">
-        <v>0.4232651131544999</v>
+        <v>0.706685770854</v>
       </c>
       <c r="R29">
-        <v>2.539590678927</v>
+        <v>4.240114625124</v>
       </c>
       <c r="S29">
-        <v>0.005487623311388591</v>
+        <v>0.01083559668788114</v>
       </c>
       <c r="T29">
-        <v>0.004736718651499276</v>
+        <v>0.009966511240197063</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H30">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I30">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J30">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N30">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O30">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P30">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q30">
-        <v>0.2675404212849999</v>
+        <v>0.01027848951422222</v>
       </c>
       <c r="R30">
-        <v>2.407863791565</v>
+        <v>0.092506405628</v>
       </c>
       <c r="S30">
-        <v>0.003468655948609643</v>
+        <v>0.0001575998435657436</v>
       </c>
       <c r="T30">
-        <v>0.004491028190651012</v>
+        <v>0.0002174389640361971</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H31">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I31">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J31">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N31">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O31">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P31">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q31">
-        <v>0.004797326196333333</v>
+        <v>0.002347450196</v>
       </c>
       <c r="R31">
-        <v>0.043175935767</v>
+        <v>0.021127051764</v>
       </c>
       <c r="S31">
-        <v>6.219723348124013E-05</v>
+        <v>3.59933999208802E-05</v>
       </c>
       <c r="T31">
-        <v>8.052961524094577E-05</v>
+        <v>4.965974212830941E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H32">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I32">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J32">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N32">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O32">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P32">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q32">
-        <v>2.698295040272</v>
+        <v>4.607600743181</v>
       </c>
       <c r="R32">
-        <v>16.189770241632</v>
+        <v>27.645604459086</v>
       </c>
       <c r="S32">
-        <v>0.03498333858334297</v>
+        <v>0.07064823633219207</v>
       </c>
       <c r="T32">
-        <v>0.03019635695758142</v>
+        <v>0.06498178750897919</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H33">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I33">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J33">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>6.130444</v>
       </c>
       <c r="O33">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P33">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q33">
-        <v>2.146320893754222</v>
+        <v>2.956046966285333</v>
       </c>
       <c r="R33">
-        <v>19.316888043788</v>
+        <v>26.604422696568</v>
       </c>
       <c r="S33">
-        <v>0.0278270053548845</v>
+        <v>0.04532500021670861</v>
       </c>
       <c r="T33">
-        <v>0.03602890207668938</v>
+        <v>0.06253445986417043</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H34">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I34">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J34">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N34">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O34">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P34">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q34">
-        <v>0.01266692754</v>
+        <v>0.005682142672</v>
       </c>
       <c r="R34">
-        <v>0.11400234786</v>
+        <v>0.051139284048</v>
       </c>
       <c r="S34">
-        <v>0.0001642264497872783</v>
+        <v>8.712416303838587E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002126315283419311</v>
+        <v>0.0001202043563303709</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H35">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I35">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J35">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N35">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O35">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P35">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q35">
-        <v>3.4150903166515</v>
+        <v>2.836296918513</v>
       </c>
       <c r="R35">
-        <v>20.490541899909</v>
+        <v>17.017781511078</v>
       </c>
       <c r="S35">
-        <v>0.04427657430229429</v>
+        <v>0.0434888754855605</v>
       </c>
       <c r="T35">
-        <v>0.03821794307326495</v>
+        <v>0.04000078434398848</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H36">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I36">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J36">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N36">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O36">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P36">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q36">
-        <v>2.158634561761667</v>
+        <v>0.04125291514066667</v>
       </c>
       <c r="R36">
-        <v>19.427711055855</v>
+        <v>0.371276236266</v>
       </c>
       <c r="S36">
-        <v>0.02798665180224405</v>
+        <v>0.0006325300000358982</v>
       </c>
       <c r="T36">
-        <v>0.03623560366550403</v>
+        <v>0.0008726954597023274</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H37">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I37">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J37">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N37">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O37">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P37">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q37">
-        <v>0.03870695157655556</v>
+        <v>0.009421536462</v>
       </c>
       <c r="R37">
-        <v>0.348362564189</v>
+        <v>0.084793828158</v>
       </c>
       <c r="S37">
-        <v>0.0005018348150672229</v>
+        <v>0.0001444602021051444</v>
       </c>
       <c r="T37">
-        <v>0.0006497485870342422</v>
+        <v>0.0001993103291190697</v>
       </c>
     </row>
   </sheetData>
